--- a/biology/Zoologie/Carcineretidae/Carcineretidae.xlsx
+++ b/biology/Zoologie/Carcineretidae/Carcineretidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carcineretidae sont une famille de crabes fossiles du Crétacé. Elle comporte cinq espèces dans quatre genres.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>†Branchiocarcinus Vega, Feldmann &amp; Sour-Tovar, 1995
 †Cancrixantho Van Straelen, 1934
@@ -544,7 +558,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Beurlen, 1930 : Vergleichende Stammesgeschichte Grundlagen, Methoden, Probleme unter besonderer Berücksichtigung der höheren Krebse. Fortschrifte in der Geologie und Paläontologie, vol. 8, p. 317–586.
  Portail de la paléontologie   Portail de la carcinologie et des crustacés                    </t>
